--- a/Data Files/currency/xlsx Files/currency_prices.xlsx
+++ b/Data Files/currency/xlsx Files/currency_prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
   <si>
     <t>date</t>
   </si>
@@ -3974,6 +3974,18 @@
   </si>
   <si>
     <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +4343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1385"/>
+  <dimension ref="A1:B1323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14798,7 +14810,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>0.8914830594101801</v>
+        <v>0.9091571369204272</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -14830,7 +14842,7 @@
         <v>1312</v>
       </c>
       <c r="B1312">
-        <v>0.9070542502152428</v>
+        <v>0.9070542502152427</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -14838,7 +14850,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>0.9087612250366612</v>
+        <v>0.9087612250366613</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -14846,7 +14858,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>0.9070716831566004</v>
+        <v>0.9070716831566005</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -14854,7 +14866,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>0.9052540941022488</v>
+        <v>0.9052540941022487</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -14878,7 +14890,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>0.9090507748770024</v>
+        <v>0.9090507748770025</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -14891,530 +14903,34 @@
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="B1320">
-        <v>0.9111895566345982</v>
+        <v>0.9131963137901369</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="B1321">
-        <v>0.9132885178241036</v>
+        <v>0.9133719447676765</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="B1322">
-        <v>0.9137074941902312</v>
+        <v>0.9148914803456636</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="B1323">
-        <v>0.9070542502152428</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:2">
-      <c r="A1324" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1324">
-        <v>0.9087612250366612</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:2">
-      <c r="A1325" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1325">
-        <v>0.9070716831566004</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:2">
-      <c r="A1326" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1326">
-        <v>0.9052540941022488</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2">
-      <c r="A1327" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1327">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:2">
-      <c r="A1328" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1328">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2">
-      <c r="A1329" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1329">
-        <v>0.9090507748770024</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:2">
-      <c r="A1330" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1330">
-        <v>0.9123683806976765</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:2">
-      <c r="A1331" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1331">
-        <v>0.9111895566345982</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:2">
-      <c r="A1332" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1332">
-        <v>0.9132885178241036</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:2">
-      <c r="A1333" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1333">
-        <v>0.9137074941902312</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:2">
-      <c r="A1334" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1334">
-        <v>0.9070542502152428</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:2">
-      <c r="A1335" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1335">
-        <v>0.9087612250366612</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:2">
-      <c r="A1336" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1336">
-        <v>0.9070716831566004</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2">
-      <c r="A1337" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1337">
-        <v>0.9052540941022488</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:2">
-      <c r="A1338" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1338">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:2">
-      <c r="A1339" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1339">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:2">
-      <c r="A1340" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1340">
-        <v>0.9090507748770024</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:2">
-      <c r="A1341" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1341">
-        <v>0.9123683806976765</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:2">
-      <c r="A1342" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1342">
-        <v>0.9111895566345982</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:2">
-      <c r="A1343" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1343">
-        <v>0.9132885178241036</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:2">
-      <c r="A1344" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1344">
-        <v>0.9137074941902312</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2">
-      <c r="A1345" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1345">
-        <v>0.9070542502152428</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:2">
-      <c r="A1346" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1346">
-        <v>0.9087612250366612</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:2">
-      <c r="A1347" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1347">
-        <v>0.9070716831566004</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:2">
-      <c r="A1348" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1348">
-        <v>0.9052540941022488</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:2">
-      <c r="A1349" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1349">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:2">
-      <c r="A1350" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1350">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:2">
-      <c r="A1351" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1351">
-        <v>0.9090507748770024</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:2">
-      <c r="A1352" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1352">
-        <v>0.9123683806976765</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:2">
-      <c r="A1353" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1353">
-        <v>0.9111895566345982</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:2">
-      <c r="A1354" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1354">
-        <v>0.9132885178241036</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2">
-      <c r="A1355" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1355">
-        <v>0.9137074941902312</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:2">
-      <c r="A1356" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1356">
-        <v>0.9070542502152428</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2">
-      <c r="A1357" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1357">
-        <v>0.9087612250366612</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:2">
-      <c r="A1358" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1358">
-        <v>0.9070716831566004</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:2">
-      <c r="A1359" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1359">
-        <v>0.9052540941022488</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:2">
-      <c r="A1360" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1360">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1361">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:2">
-      <c r="A1362" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1362">
-        <v>0.9090507748770024</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="A1363" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1363">
-        <v>0.9123683806976765</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:2">
-      <c r="A1364" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1364">
-        <v>0.9111895566345982</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:2">
-      <c r="A1365" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1365">
-        <v>0.9132885178241036</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:2">
-      <c r="A1366" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1366">
-        <v>0.9137074941902312</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:2">
-      <c r="A1367" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1367">
-        <v>0.9070542502152428</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:2">
-      <c r="A1368" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1368">
-        <v>0.9087612250366612</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:2">
-      <c r="A1369" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1369">
-        <v>0.9070716831566004</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:2">
-      <c r="A1370" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1370">
-        <v>0.9052540941022488</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="A1371" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1371">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:2">
-      <c r="A1372" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1372">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:2">
-      <c r="A1373" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1373">
-        <v>0.9090507748770024</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:2">
-      <c r="A1374" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1374">
-        <v>0.9123683806976765</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:2">
-      <c r="A1375" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1375">
-        <v>0.9111895566345982</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:2">
-      <c r="A1376" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1376">
-        <v>0.9132885178241036</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:2">
-      <c r="A1377" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1377">
-        <v>0.9137074941902312</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:2">
-      <c r="A1378" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1378">
-        <v>0.9070542502152427</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:2">
-      <c r="A1379" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1379">
-        <v>0.9087612250366613</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:2">
-      <c r="A1380" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1380">
-        <v>0.9070716831566005</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:2">
-      <c r="A1381" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1381">
-        <v>0.9052540941022487</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:2">
-      <c r="A1382" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1382">
-        <v>0.9126705782273145</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:2">
-      <c r="A1383" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1383">
-        <v>0.9088969782493518</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:2">
-      <c r="A1384" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1384">
-        <v>0.9090507748770025</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:2">
-      <c r="A1385" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1385">
-        <v>0.9123683806976765</v>
+        <v>0.9136344187902591</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/currency/xlsx Files/currency_prices.xlsx
+++ b/Data Files/currency/xlsx Files/currency_prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1326">
   <si>
     <t>date</t>
   </si>
@@ -3986,6 +3986,12 @@
   </si>
   <si>
     <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
   </si>
 </sst>
 </file>
@@ -4343,7 +4349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1323"/>
+  <dimension ref="A1:B1325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14842,7 +14848,7 @@
         <v>1312</v>
       </c>
       <c r="B1312">
-        <v>0.9070542502152427</v>
+        <v>0.9070542502152428</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -14850,7 +14856,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>0.9087612250366613</v>
+        <v>0.9087612250366612</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -14858,7 +14864,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>0.9070716831566005</v>
+        <v>0.9070716831566004</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -14866,7 +14872,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>0.9052540941022487</v>
+        <v>0.9052540941022488</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -14890,7 +14896,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>0.9090507748770025</v>
+        <v>0.9090507748770024</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -14906,7 +14912,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>0.9131963137901369</v>
+        <v>0.9131963137901368</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -14914,7 +14920,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>0.9133719447676765</v>
+        <v>0.9133719447676764</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -14930,7 +14936,23 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>0.9136344187902591</v>
+        <v>0.9136344187902592</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1324">
+        <v>0.9188924280015595</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1325">
+        <v>0.9196296105298015</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/currency/xlsx Files/currency_prices.xlsx
+++ b/Data Files/currency/xlsx Files/currency_prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1349">
   <si>
     <t>date</t>
   </si>
@@ -3992,6 +3992,75 @@
   </si>
   <si>
     <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
   </si>
 </sst>
 </file>
@@ -4349,7 +4418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1325"/>
+  <dimension ref="A1:B1348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14944,7 +15013,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>0.9188924280015595</v>
+        <v>0.9188924280015596</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -14952,7 +15021,191 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>0.9196296105298015</v>
+        <v>0.9196296105298016</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1326">
+        <v>0.9186590956221447</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1327">
+        <v>0.9208352491360975</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1328">
+        <v>0.9267152860013571</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1329">
+        <v>0.9173868726084622</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1330">
+        <v>0.9216308215777895</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1331">
+        <v>0.916416413647274</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1332">
+        <v>0.9249150713156021</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1333">
+        <v>0.9253015746700953</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1334">
+        <v>0.9260709106473283</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1335">
+        <v>0.9291095803036642</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1336">
+        <v>0.9245288456351862</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1337">
+        <v>0.9182388455392471</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1338">
+        <v>0.9140910262678169</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1339">
+        <v>0.9183313397383227</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1340">
+        <v>0.9275432091775185</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1341">
+        <v>0.922686074170466</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1342">
+        <v>0.9284101405876203</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1343">
+        <v>0.9265092605722369</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1344">
+        <v>0.9320291692234548</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1345">
+        <v>0.9321445941858783</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1346">
+        <v>0.9334941303910537</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1347">
+        <v>0.9327919389566486</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1348">
+        <v>0.9327130559698409</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/currency/xlsx Files/currency_prices.xlsx
+++ b/Data Files/currency/xlsx Files/currency_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1360"/>
+  <dimension ref="A1:B1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="B1351" t="n">
-        <v>0.9456975608411727</v>
+        <v>0.9456975608411728</v>
       </c>
     </row>
     <row r="1352">
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="B1352" t="n">
-        <v>0.9456215060157311</v>
+        <v>0.9456215060157313</v>
       </c>
     </row>
     <row r="1353">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>0.9457021287033123</v>
+        <v>0.9457021287033124</v>
       </c>
     </row>
     <row r="1354">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="B1355" t="n">
-        <v>0.9520866630861703</v>
+        <v>0.9520866630861704</v>
       </c>
     </row>
     <row r="1356">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="B1359" t="n">
-        <v>0.9444399514788175</v>
+        <v>0.9444399514788177</v>
       </c>
     </row>
     <row r="1360">
@@ -14033,6 +14033,1396 @@
       </c>
       <c r="B1360" t="n">
         <v>0.9454029731186946</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>0.9457616408940103</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>0.9458719939969993</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>0.9418504513989946</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>0.9371815162452983</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>0.9486430923517377</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>0.9479669289916347</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>0.9517374997653508</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>0.9511400879149025</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>0.9466280156956492</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>0.9465662618061806</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>0.9484659787173039</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>0.9451491541775148</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>0.9447987159158298</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>0.9447355074834111</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>0.9442536347444758</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>0.9368670245318715</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>0.9426736264548318</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>0.9460354420237632</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>0.9484597745663718</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>0.9465690694959129</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>0.9458378644196922</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>0.9456712083248112</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>0.9428466669548856</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>0.9461954440959768</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>0.9464282241132318</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>0.9422328909815197</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>0.9312958220851334</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>0.9347413209698966</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>0.93599725342184</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>0.9329003033454832</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>0.9398552860879338</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>0.9346188085283772</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0.9382198088392683</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>0.9351108950851816</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>0.9394146981881806</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>0.9351248221175344</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>0.935437059715657</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>0.9198884362648033</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>0.9227007321539276</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>0.9211450709065637</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>0.9172760212037482</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>0.9163590501137914</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>0.9178315205840671</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>0.9152102573227366</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>0.91780170953887</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>0.920798952059709</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>0.9190593618577992</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>0.9165332460469506</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>0.9136846214640336</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>0.9172627317194424</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>0.9129141754175456</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>0.9107151448786911</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>0.9118489704293847</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>0.9183369929718712</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>0.9245729135096348</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>0.9252191436011231</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>0.9223545575311097</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>0.9255011484545527</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>0.9270924392555342</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>0.9279949122675909</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>0.9330513399330395</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>0.9310799751007045</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>0.928719676334498</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>0.9305730693638169</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>0.9297222741172922</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>0.9274348028709091</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>0.9253544878069694</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>0.9193573211760886</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>0.9212535261235121</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>0.9217396584468978</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>0.9196428927335351</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>0.9172514027250903</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>0.9167044391877737</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>0.9133102709048582</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.9195751568258463</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>0.9174826020863721</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>0.9145402601139501</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>0.9211659525050861</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>0.9130638753410724</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>0.9071328404268897</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>0.9150287467751845</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>0.9067552655660333</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>0.9146399696325263</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>0.9119386801207846</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>0.9107184149179123</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>0.9129065976846708</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>0.9159844082939458</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>0.917466740137594</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>0.918839045971852</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>0.9242187922828472</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>0.9206507884362776</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>0.9217330541492468</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>0.9143213678229255</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>0.9156338051625903</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>0.9139927580372474</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>0.9112572388837912</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>0.9119137373957775</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>0.9136861486895842</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>0.9121919062818314</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>0.9179701273478433</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>0.9178831711712865</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>0.9169759046663901</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>0.9173549116085207</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>0.9167272155977474</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>0.9170967013011817</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>0.9192971552632508</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>0.915402982469925</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>0.921190806539734</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>0.9186637115475811</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>0.9215752099770762</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>0.9220461565638147</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.9226640195107103</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>0.9231873702579477</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.922320793323699</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.9238868222587213</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>0.9237851656620868</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>0.9229203745253124</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>0.9258987421882034</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>0.9258508526980923</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>0.9275778065221452</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>0.9306844907061551</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>0.9319862797869902</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>0.928160669022553</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>0.9304116073029959</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>0.9270274560368433</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>0.9270975523262067</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>0.9284688390290137</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>0.9284746004560016</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>0.9343293487007063</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>0.9318769402412725</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>0.9299918562438134</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.9307126662581066</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>0.9279043383810303</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>0.9270099574161197</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>0.9302225599850594</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>0.9262042734330065</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>0.9254005408731009</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>0.9246029106702607</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>0.9268059536371416</v>
       </c>
     </row>
   </sheetData>
